--- a/Research/results.xlsx
+++ b/Research/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\Git\Handwritten-digit-classification\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A45DAC8-44ED-41C1-B7FF-4AD7C1F2E32F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0997771-77A0-44FF-90D3-590CEC2CFFC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{927AF142-C602-4221-AE13-F5EBDBB2685A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Pipeline results</t>
+  </si>
+  <si>
+    <t>Val accuracy</t>
+  </si>
+  <si>
+    <t>World accuracy</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -64,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +94,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -119,6 +139,13 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
@@ -436,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D7E1D-6A99-4ACE-8B1E-855AE66DE879}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +474,8 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,7 +991,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -982,7 +1010,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1001,7 +1029,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1048,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1067,7 @@
         <v>0.92589999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1086,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1076,6 +1104,185 @@
       <c r="E38" s="5">
         <v>0.93300000000000005</v>
       </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C42">
+        <f>B$1*B42</f>
+        <v>8400</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D45" si="6">B$1*0.2</f>
+        <v>8400</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C46" si="7">B$1*B43</f>
+        <v>16800</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>8400</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.93569999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="7"/>
+        <v>25200</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>8400</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="7"/>
+        <v>33600</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>8400</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="7"/>
+        <v>42000</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.94971000000000005</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="E56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Research/results.xlsx
+++ b/Research/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\Git\Handwritten-digit-classification\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0997771-77A0-44FF-90D3-590CEC2CFFC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC47167-CCEB-4A37-A7A7-A7522F1E4B40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{927AF142-C602-4221-AE13-F5EBDBB2685A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Algorithm</t>
   </si>
@@ -67,6 +67,69 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Metrics:</t>
+  </si>
+  <si>
+    <t>Classificatie</t>
+  </si>
+  <si>
+    <t>Mean absolute error</t>
+  </si>
+  <si>
+    <t>Median absolute deviation</t>
+  </si>
+  <si>
+    <t>Root mean squared error</t>
+  </si>
+  <si>
+    <t>R-Squared</t>
+  </si>
+  <si>
+    <t>Adjusted RMSE</t>
+  </si>
+  <si>
+    <t>Adjust R-Squared</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>AUC-ROC</t>
+  </si>
+  <si>
+    <t>AUC-PRC</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Matthews correlation coefficient</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Pipeline results XGBoost</t>
+  </si>
+  <si>
+    <t>Pipeline results ANN</t>
+  </si>
+  <si>
+    <t>Kaggle accuracy</t>
   </si>
 </sst>
 </file>
@@ -164,6 +227,1101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>XGBoost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$J$7:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$K$7:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00%">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00%">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>0.94589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A92D-4254-8A87-D1715F30BEFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="539677648"/>
+        <c:axId val="539675024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539677648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Dataset size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539675024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539675024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539677648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B993C9E0-3149-4A5D-A4A9-11A66EF58C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D7E1D-6A99-4ACE-8B1E-855AE66DE879}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,9 +1634,14 @@
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +1649,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -495,7 +1658,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -511,8 +1674,11 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -530,8 +1696,17 @@
       <c r="E6" s="3">
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -549,18 +1724,22 @@
       <c r="E7" s="4">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>8400</v>
@@ -568,8 +1747,16 @@
       <c r="E8" s="4">
         <v>0.72099999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -587,8 +1774,16 @@
       <c r="E9" s="4">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -606,8 +1801,16 @@
       <c r="E10" s="4">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -615,7 +1818,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f>B$2*B11</f>
         <v>369.59999999999997</v>
       </c>
       <c r="D11">
@@ -625,8 +1828,16 @@
       <c r="E11" s="3">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -644,8 +1855,17 @@
       <c r="E12" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -663,8 +1883,17 @@
       <c r="E13" s="3">
         <v>0.81899999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.93569999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -682,8 +1911,17 @@
       <c r="E14" s="3">
         <v>0.82799999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.93569999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -701,8 +1939,17 @@
       <c r="E15" s="3">
         <v>0.84050000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.93569999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -720,8 +1967,11 @@
       <c r="E16" s="3">
         <v>0.85799999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -740,7 +1990,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -759,7 +2009,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -778,7 +2028,7 @@
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -797,13 +2047,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -819,8 +2069,11 @@
       <c r="E23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -838,8 +2091,17 @@
       <c r="E24" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -857,8 +2119,12 @@
       <c r="E25" s="4">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -876,8 +2142,12 @@
       <c r="E26" s="4">
         <v>0.39200000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -895,8 +2165,12 @@
       <c r="E27" s="4">
         <v>0.52400000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -914,8 +2188,12 @@
       <c r="E28" s="4">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J28" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -933,8 +2211,12 @@
       <c r="E29" s="3">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -952,8 +2234,17 @@
       <c r="E30" s="3">
         <v>0.753</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -971,8 +2262,15 @@
       <c r="E31" s="3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -990,8 +2288,15 @@
       <c r="E32" s="3">
         <v>0.79400000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +2314,17 @@
       <c r="E33" s="3">
         <v>0.82199999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +2343,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +2362,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +2381,7 @@
         <v>0.92589999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +2400,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1105,12 +2419,12 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +2443,11 @@
       <c r="F41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +2469,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1173,8 +2490,17 @@
       <c r="F43" s="7">
         <v>0.93569999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1196,8 +2522,17 @@
         <v>0.93569999999999998</v>
       </c>
       <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1219,8 +2554,17 @@
         <v>0.93569999999999998</v>
       </c>
       <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1241,51 +2585,106 @@
         <v>0.94971000000000005</v>
       </c>
       <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="E47" s="3"/>
       <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="E48" s="3"/>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="E56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Research/results.xlsx
+++ b/Research/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\Git\Handwritten-digit-classification\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC47167-CCEB-4A37-A7A7-A7522F1E4B40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA4F7B-7B13-4F02-9CB8-FB8FAC8F95A0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{927AF142-C602-4221-AE13-F5EBDBB2685A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
@@ -69,60 +69,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Metrics:</t>
-  </si>
-  <si>
-    <t>Classificatie</t>
-  </si>
-  <si>
-    <t>Mean absolute error</t>
-  </si>
-  <si>
-    <t>Median absolute deviation</t>
-  </si>
-  <si>
-    <t>Root mean squared error</t>
-  </si>
-  <si>
-    <t>R-Squared</t>
-  </si>
-  <si>
-    <t>Adjusted RMSE</t>
-  </si>
-  <si>
-    <t>Adjust R-Squared</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t>Kappa</t>
-  </si>
-  <si>
-    <t>AUC-ROC</t>
-  </si>
-  <si>
-    <t>AUC-PRC</t>
-  </si>
-  <si>
-    <t>F1-Score</t>
-  </si>
-  <si>
-    <t>Matthews correlation coefficient</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>Pipeline results XGBoost</t>
   </si>
   <si>
@@ -130,6 +76,9 @@
   </si>
   <si>
     <t>Kaggle accuracy</t>
+  </si>
+  <si>
+    <t>0.00%</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1573,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1703,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1967,9 +1916,13 @@
       <c r="E16" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <v>0.94971000000000005</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2070,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2098,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,7 +2144,9 @@
       <c r="J28" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2268,7 +2223,9 @@
       <c r="K31" s="7">
         <v>0.96899999999999997</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="7">
+        <v>0.96699999999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2294,9 +2251,11 @@
       <c r="K32" s="8">
         <v>0.97360000000000002</v>
       </c>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2317,14 +2276,11 @@
       <c r="J33" s="1">
         <v>0.8</v>
       </c>
-      <c r="K33" s="8">
-        <v>0.97899999999999998</v>
-      </c>
       <c r="L33" s="8">
-        <v>0.97899999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2342,8 +2298,14 @@
       <c r="E34" s="3">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2361,8 +2323,9 @@
       <c r="E35" s="3">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2344,7 @@
         <v>0.92589999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2400,7 +2363,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2419,12 +2382,12 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2443,11 +2406,8 @@
       <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2469,7 +2429,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2490,17 +2450,10 @@
       <c r="F43" s="7">
         <v>0.93569999999999998</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2522,17 +2475,8 @@
         <v>0.93569999999999998</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="K44" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2554,17 +2498,8 @@
         <v>0.93569999999999998</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2585,100 +2520,46 @@
         <v>0.94971000000000005</v>
       </c>
       <c r="G46" s="8"/>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="E47" s="3"/>
       <c r="G47" s="8"/>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="E48" s="3"/>
       <c r="G48" s="7"/>
-      <c r="K48" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="E49" s="3"/>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="E50" s="3"/>
-      <c r="L50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="E51" s="3"/>
-      <c r="L51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="E52" s="3"/>
-      <c r="L52" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="E56" s="5"/>
     </row>
